--- a/output/1Y_P9_KFSDIV.xlsx
+++ b/output/1Y_P9_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D2" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.3595</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E3" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="F3" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="H3" s="1">
-        <v>10786.6514</v>
+        <v>10743.5079</v>
       </c>
       <c r="I3" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10786.6514</v>
+        <v>10743.5079</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.07439999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.0875</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E4" s="1">
-        <v>2006.5304</v>
+        <v>2002.5079</v>
       </c>
       <c r="F4" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="H4" s="1">
-        <v>20240.8751</v>
+        <v>20159.8475</v>
       </c>
       <c r="I4" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20240.8751</v>
+        <v>20159.8475</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0263</v>
+        <v>-0.0281</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>10.1692</v>
       </c>
       <c r="C5" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D5" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E5" s="1">
-        <v>2997.8563</v>
+        <v>2991.8526</v>
       </c>
       <c r="F5" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="H5" s="1">
-        <v>30485.8</v>
+        <v>30364.0131</v>
       </c>
       <c r="I5" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30485.8</v>
+        <v>30364.0131</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0072</v>
+        <v>10.0272</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>541.7632</v>
+        <v>540.6771</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9458.236800000001</v>
+        <v>-9459.322899999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0081</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.0872</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E6" s="1">
-        <v>3981.2178</v>
+        <v>3973.2454</v>
       </c>
       <c r="F6" s="1">
-        <v>908.049</v>
+        <v>906.2222</v>
       </c>
       <c r="H6" s="1">
-        <v>44140.5579</v>
+        <v>43963.9606</v>
       </c>
       <c r="I6" s="1">
-        <v>541.7632</v>
+        <v>540.6771</v>
       </c>
       <c r="J6" s="1">
-        <v>44682.3211</v>
+        <v>44504.6377</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.0472</v>
+        <v>10.0673</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10067.7204</v>
+        <v>-10067.5846</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1037</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.0976</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E7" s="1">
-        <v>4889.2668</v>
+        <v>4879.4676</v>
       </c>
       <c r="F7" s="1">
-        <v>907.198</v>
+        <v>905.3746</v>
       </c>
       <c r="H7" s="1">
-        <v>54259.1267</v>
+        <v>54042.0554</v>
       </c>
       <c r="I7" s="1">
-        <v>474.0428</v>
+        <v>473.0925</v>
       </c>
       <c r="J7" s="1">
-        <v>54733.1695</v>
+        <v>54515.1479</v>
       </c>
       <c r="K7" s="1">
-        <v>50067.7204</v>
+        <v>50067.5846</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2403</v>
+        <v>10.2609</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10067.7204</v>
+        <v>-10067.5846</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0009</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>10.8505</v>
       </c>
       <c r="C8" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D8" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E8" s="1">
-        <v>5796.4647</v>
+        <v>5784.8422</v>
       </c>
       <c r="F8" s="1">
-        <v>927.8577</v>
+        <v>925.9848</v>
       </c>
       <c r="H8" s="1">
-        <v>62894.5407</v>
+        <v>62642.8993</v>
       </c>
       <c r="I8" s="1">
-        <v>406.3224</v>
+        <v>405.5078</v>
       </c>
       <c r="J8" s="1">
-        <v>63300.8631</v>
+        <v>63048.4072</v>
       </c>
       <c r="K8" s="1">
-        <v>60135.4408</v>
+        <v>60135.1693</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3745</v>
+        <v>10.3953</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2200.17</v>
+        <v>2195.7604</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7867.5504</v>
+        <v>-7871.8242</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0221</v>
+        <v>-0.0227</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.8576</v>
       </c>
       <c r="C9" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D9" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E9" s="1">
-        <v>6724.3225</v>
+        <v>6710.827</v>
       </c>
       <c r="F9" s="1">
-        <v>886.162</v>
+        <v>884.3012</v>
       </c>
       <c r="H9" s="1">
-        <v>79734.3262</v>
+        <v>79415.2559</v>
       </c>
       <c r="I9" s="1">
-        <v>2538.772</v>
+        <v>2533.6836</v>
       </c>
       <c r="J9" s="1">
-        <v>82273.0983</v>
+        <v>81948.93949999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70203.1612</v>
+        <v>70202.7539</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4402</v>
+        <v>10.4611</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10507.7544</v>
+        <v>-10506.7367</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1224</v>
+        <v>0.1218</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.5699</v>
       </c>
       <c r="C10" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D10" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E10" s="1">
-        <v>7610.4845</v>
+        <v>7595.1283</v>
       </c>
       <c r="F10" s="1">
-        <v>835.9457</v>
+        <v>834.1924</v>
       </c>
       <c r="H10" s="1">
-        <v>95663.0287</v>
+        <v>95279.36500000001</v>
       </c>
       <c r="I10" s="1">
-        <v>2031.0176</v>
+        <v>2026.9469</v>
       </c>
       <c r="J10" s="1">
-        <v>97694.04640000001</v>
+        <v>97306.3119</v>
       </c>
       <c r="K10" s="1">
-        <v>80710.91559999999</v>
+        <v>80709.4906</v>
       </c>
       <c r="L10" s="1">
-        <v>10.6052</v>
+        <v>10.6265</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10507.7544</v>
+        <v>-10506.7367</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0587</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>13.5994</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E11" s="1">
-        <v>8446.430200000001</v>
+        <v>8429.3207</v>
       </c>
       <c r="F11" s="1">
-        <v>772.6631</v>
+        <v>771.0461</v>
       </c>
       <c r="H11" s="1">
-        <v>114866.383</v>
+        <v>114404.4259</v>
       </c>
       <c r="I11" s="1">
-        <v>1523.2632</v>
+        <v>1520.2102</v>
       </c>
       <c r="J11" s="1">
-        <v>116389.6463</v>
+        <v>115924.636</v>
       </c>
       <c r="K11" s="1">
-        <v>91218.67</v>
+        <v>91216.2274</v>
       </c>
       <c r="L11" s="1">
-        <v>10.7997</v>
+        <v>10.8213</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3424.718</v>
+        <v>3417.8077</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7083.0364</v>
+        <v>-7088.929</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.08069999999999999</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>14.6663</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E12" s="1">
-        <v>9219.0933</v>
+        <v>9200.3668</v>
       </c>
       <c r="F12" s="1">
-        <v>833.2104</v>
+        <v>831.2391</v>
       </c>
       <c r="H12" s="1">
-        <v>135209.9881</v>
+        <v>134665.7682</v>
       </c>
       <c r="I12" s="1">
-        <v>4440.2268</v>
+        <v>4431.2812</v>
       </c>
       <c r="J12" s="1">
-        <v>139650.2149</v>
+        <v>139097.0494</v>
       </c>
       <c r="K12" s="1">
-        <v>101726.4244</v>
+        <v>101722.9641</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0343</v>
+        <v>11.0564</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12220.1134</v>
+        <v>-12215.6406</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1049</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>14.701</v>
       </c>
       <c r="C13" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D13" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E13" s="1">
-        <v>10052.3037</v>
+        <v>10031.6059</v>
       </c>
       <c r="F13" s="1">
-        <v>831.2437</v>
+        <v>829.2754</v>
       </c>
       <c r="H13" s="1">
-        <v>147778.9164</v>
+        <v>147179.7086</v>
       </c>
       <c r="I13" s="1">
-        <v>2220.1134</v>
+        <v>2215.6406</v>
       </c>
       <c r="J13" s="1">
-        <v>149999.0299</v>
+        <v>149395.3492</v>
       </c>
       <c r="K13" s="1">
-        <v>113946.5378</v>
+        <v>113938.6047</v>
       </c>
       <c r="L13" s="1">
-        <v>11.3354</v>
+        <v>11.358</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12220.1134</v>
+        <v>-12215.6406</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0023</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>13.8109</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E14" s="1">
-        <v>10883.5474</v>
+        <v>10860.8812</v>
       </c>
       <c r="F14" s="1">
-        <v>-10883.5474</v>
+        <v>-10860.8812</v>
       </c>
       <c r="H14" s="1">
-        <v>150311.5843</v>
+        <v>149698.7841</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>150311.5843</v>
+        <v>149698.7841</v>
       </c>
       <c r="K14" s="1">
-        <v>126166.6512</v>
+        <v>126154.2453</v>
       </c>
       <c r="L14" s="1">
-        <v>11.5924</v>
+        <v>11.6155</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>9047.0733</v>
+        <v>9028.445299999999</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>159358.6577</v>
+        <v>158727.2294</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0605</v>
+        <v>-0.0608</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D2" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.3595</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E3" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="F3" s="1">
-        <v>889.3623</v>
+        <v>895.3159000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10786.6514</v>
+        <v>10743.5079</v>
       </c>
       <c r="I3" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10786.6514</v>
+        <v>10743.5079</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9213.348599999999</v>
+        <v>-9293.6477</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.07439999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.0875</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E4" s="1">
-        <v>1930.5951</v>
+        <v>1934.4605</v>
       </c>
       <c r="F4" s="1">
-        <v>1043.3826</v>
+        <v>1045.4845</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19474.8781</v>
+        <v>19474.794</v>
       </c>
       <c r="I4" s="1">
-        <v>786.6514</v>
+        <v>706.3523</v>
       </c>
       <c r="J4" s="1">
-        <v>20261.5295</v>
+        <v>20181.1463</v>
       </c>
       <c r="K4" s="1">
-        <v>19213.3486</v>
+        <v>19293.6477</v>
       </c>
       <c r="L4" s="1">
-        <v>9.952</v>
+        <v>9.973699999999999</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10525.1219</v>
+        <v>-10567.4436</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0253</v>
+        <v>-0.0271</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>10.1692</v>
       </c>
       <c r="C5" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D5" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E5" s="1">
-        <v>2973.9777</v>
+        <v>2979.945</v>
       </c>
       <c r="F5" s="1">
-        <v>959.4684</v>
+        <v>961.3689000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>30242.974</v>
+        <v>30243.1635</v>
       </c>
       <c r="I5" s="1">
-        <v>261.5295</v>
+        <v>138.9087</v>
       </c>
       <c r="J5" s="1">
-        <v>30504.5035</v>
+        <v>30382.0723</v>
       </c>
       <c r="K5" s="1">
-        <v>29738.4705</v>
+        <v>29861.0913</v>
       </c>
       <c r="L5" s="1">
-        <v>9.999599999999999</v>
+        <v>10.0207</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>521.2607</v>
+        <v>522.3043</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9235.765299999999</v>
+        <v>-9273.659900000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.008</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.0872</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E6" s="1">
-        <v>3933.4461</v>
+        <v>3941.3138</v>
       </c>
       <c r="F6" s="1">
-        <v>576.2588</v>
+        <v>577.439</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>43610.9035</v>
+        <v>43610.6376</v>
       </c>
       <c r="I6" s="1">
-        <v>1025.7642</v>
+        <v>865.2489</v>
       </c>
       <c r="J6" s="1">
-        <v>44636.6677</v>
+        <v>44475.8865</v>
       </c>
       <c r="K6" s="1">
-        <v>39495.4965</v>
+        <v>39657.0555</v>
       </c>
       <c r="L6" s="1">
-        <v>10.0409</v>
+        <v>10.0619</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6389.0965</v>
+        <v>-6415.0007</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.102</v>
+        <v>0.1014</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.0976</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E7" s="1">
-        <v>4509.7049</v>
+        <v>4518.7528</v>
       </c>
       <c r="F7" s="1">
-        <v>896.8695</v>
+        <v>898.6587</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50046.9009</v>
+        <v>50046.995</v>
       </c>
       <c r="I7" s="1">
-        <v>4636.6677</v>
+        <v>4450.2482</v>
       </c>
       <c r="J7" s="1">
-        <v>54683.5686</v>
+        <v>54497.2432</v>
       </c>
       <c r="K7" s="1">
-        <v>45884.593</v>
+        <v>46072.0561</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1746</v>
+        <v>10.1957</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9953.099099999999</v>
+        <v>-9992.9054</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0009</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>10.8505</v>
       </c>
       <c r="C8" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D8" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E8" s="1">
-        <v>5406.5744</v>
+        <v>5417.4116</v>
       </c>
       <c r="F8" s="1">
-        <v>1044.7412</v>
+        <v>1046.8319</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58664.0355</v>
+        <v>58664.0663</v>
       </c>
       <c r="I8" s="1">
-        <v>4683.5686</v>
+        <v>4457.3428</v>
       </c>
       <c r="J8" s="1">
-        <v>63347.6041</v>
+        <v>63121.4091</v>
       </c>
       <c r="K8" s="1">
-        <v>55837.6921</v>
+        <v>56064.9616</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3277</v>
+        <v>10.349</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2029.3672</v>
+        <v>2033.4388</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9306.597299999999</v>
+        <v>-9348.0321</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0207</v>
+        <v>-0.0213</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.8576</v>
       </c>
       <c r="C9" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D9" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E9" s="1">
-        <v>6451.3156</v>
+        <v>6464.2435</v>
       </c>
       <c r="F9" s="1">
-        <v>295.4122</v>
+        <v>295.9962</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>76497.11990000001</v>
+        <v>76497.2111</v>
       </c>
       <c r="I9" s="1">
-        <v>5376.9713</v>
+        <v>5109.3107</v>
       </c>
       <c r="J9" s="1">
-        <v>81874.0912</v>
+        <v>81606.5218</v>
       </c>
       <c r="K9" s="1">
-        <v>67173.6566</v>
+        <v>67446.43240000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4124</v>
+        <v>10.4338</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-3502.8801</v>
+        <v>-3516.8487</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1162</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.5699</v>
       </c>
       <c r="C10" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D10" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E10" s="1">
-        <v>6746.7278</v>
+        <v>6760.2397</v>
       </c>
       <c r="F10" s="1">
-        <v>413.2337</v>
+        <v>414.0477</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>84805.6942</v>
+        <v>84805.8544</v>
       </c>
       <c r="I10" s="1">
-        <v>11874.0912</v>
+        <v>11592.462</v>
       </c>
       <c r="J10" s="1">
-        <v>96679.7855</v>
+        <v>96398.31630000001</v>
       </c>
       <c r="K10" s="1">
-        <v>70676.53660000001</v>
+        <v>70963.28109999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4757</v>
+        <v>10.4972</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5194.3058</v>
+        <v>-5214.9722</v>
       </c>
       <c r="Q10" s="3">
         <v>0.0523</v>
@@ -1927,46 +1927,46 @@
         <v>13.5994</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E11" s="1">
-        <v>7159.9615</v>
+        <v>7174.2874</v>
       </c>
       <c r="F11" s="1">
-        <v>193.3041</v>
+        <v>193.7149</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>97371.1804</v>
+        <v>97370.8628</v>
       </c>
       <c r="I11" s="1">
-        <v>16679.7855</v>
+        <v>16377.4897</v>
       </c>
       <c r="J11" s="1">
-        <v>114050.9658</v>
+        <v>113748.3526</v>
       </c>
       <c r="K11" s="1">
-        <v>75870.84239999999</v>
+        <v>76178.2534</v>
       </c>
       <c r="L11" s="1">
-        <v>10.5965</v>
+        <v>10.6182</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3036.0275</v>
+        <v>3042.1078</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>407.2079</v>
+        <v>402.4326</v>
       </c>
       <c r="Q11" s="3">
         <v>0.06909999999999999</v>
@@ -1980,34 +1980,34 @@
         <v>14.6663</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E12" s="1">
-        <v>7353.2656</v>
+        <v>7368.0022</v>
       </c>
       <c r="F12" s="1">
-        <v>146.9219</v>
+        <v>147.199</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>107845.1991</v>
+        <v>107845.4488</v>
       </c>
       <c r="I12" s="1">
-        <v>27086.9934</v>
+        <v>26779.9223</v>
       </c>
       <c r="J12" s="1">
-        <v>134932.1924</v>
+        <v>134625.3711</v>
       </c>
       <c r="K12" s="1">
-        <v>78499.662</v>
+        <v>78817.9286</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6755</v>
+        <v>10.6973</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-2154.8009</v>
+        <v>-2163.1918</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0877</v>
+        <v>0.08790000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>14.701</v>
       </c>
       <c r="C13" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D13" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E13" s="1">
-        <v>7500.1875</v>
+        <v>7515.2012</v>
       </c>
       <c r="F13" s="1">
-        <v>662.5225</v>
+        <v>663.8658</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>110260.2565</v>
+        <v>110260.026</v>
       </c>
       <c r="I13" s="1">
-        <v>34932.1924</v>
+        <v>34616.7305</v>
       </c>
       <c r="J13" s="1">
-        <v>145192.4489</v>
+        <v>144876.7565</v>
       </c>
       <c r="K13" s="1">
-        <v>80654.463</v>
+        <v>80981.1204</v>
       </c>
       <c r="L13" s="1">
-        <v>10.7537</v>
+        <v>10.7756</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9739.7435</v>
+        <v>-9779.075699999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0018</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>13.8109</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E14" s="1">
-        <v>8162.71</v>
+        <v>8179.067</v>
       </c>
       <c r="F14" s="1">
-        <v>-8162.71</v>
+        <v>-8179.067</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112734.3718</v>
+        <v>112734.5347</v>
       </c>
       <c r="I14" s="1">
-        <v>35192.4489</v>
+        <v>34837.6548</v>
       </c>
       <c r="J14" s="1">
-        <v>147926.8207</v>
+        <v>147572.1895</v>
       </c>
       <c r="K14" s="1">
-        <v>90394.2065</v>
+        <v>90760.1961</v>
       </c>
       <c r="L14" s="1">
-        <v>11.074</v>
+        <v>11.0966</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6750.1688</v>
+        <v>6763.6811</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119484.5406</v>
+        <v>119498.2158</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0468</v>
+        <v>-0.0472</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D2" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.3595</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E3" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="F3" s="1">
-        <v>894.1888</v>
+        <v>900.1521</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10786.6514</v>
+        <v>10743.5079</v>
       </c>
       <c r="I3" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10786.6514</v>
+        <v>10743.5079</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9263.348599999999</v>
+        <v>-9343.848400000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.07439999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.0875</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E4" s="1">
-        <v>1935.4216</v>
+        <v>1939.2966</v>
       </c>
       <c r="F4" s="1">
-        <v>1053.4508</v>
+        <v>1055.5729</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19523.5653</v>
+        <v>19523.481</v>
       </c>
       <c r="I4" s="1">
-        <v>736.6514</v>
+        <v>656.1516</v>
       </c>
       <c r="J4" s="1">
-        <v>20260.2167</v>
+        <v>20179.6326</v>
       </c>
       <c r="K4" s="1">
-        <v>19263.3486</v>
+        <v>19343.8484</v>
       </c>
       <c r="L4" s="1">
-        <v>9.953099999999999</v>
+        <v>9.9747</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10626.6847</v>
+        <v>-10669.4142</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0253</v>
+        <v>-0.0272</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>10.1692</v>
       </c>
       <c r="C5" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D5" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E5" s="1">
-        <v>2988.8724</v>
+        <v>2994.8695</v>
       </c>
       <c r="F5" s="1">
-        <v>974.173</v>
+        <v>976.1028</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>30394.4409</v>
+        <v>30394.6314</v>
       </c>
       <c r="I5" s="1">
-        <v>109.9667</v>
+        <v>-13.2625</v>
       </c>
       <c r="J5" s="1">
-        <v>30504.4076</v>
+        <v>30381.3688</v>
       </c>
       <c r="K5" s="1">
-        <v>29890.0333</v>
+        <v>30013.2625</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0004</v>
+        <v>10.0216</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>522.5638</v>
+        <v>523.6101</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9383.996499999999</v>
+        <v>-9422.4872</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0081</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>11.0872</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E6" s="1">
-        <v>3963.0454</v>
+        <v>3970.9723</v>
       </c>
       <c r="F6" s="1">
-        <v>591.9826</v>
+        <v>593.1944999999999</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>43939.0769</v>
+        <v>43938.809</v>
       </c>
       <c r="I6" s="1">
-        <v>725.9702</v>
+        <v>564.2503</v>
       </c>
       <c r="J6" s="1">
-        <v>44665.0471</v>
+        <v>44503.0593</v>
       </c>
       <c r="K6" s="1">
-        <v>39796.5937</v>
+        <v>39959.3598</v>
       </c>
       <c r="L6" s="1">
-        <v>10.0419</v>
+        <v>10.0629</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6563.4293</v>
+        <v>-6590.0351</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1027</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.0976</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E7" s="1">
-        <v>4555.028</v>
+        <v>4564.1669</v>
       </c>
       <c r="F7" s="1">
-        <v>919.5808</v>
+        <v>921.4155</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50549.8785</v>
+        <v>50549.9736</v>
       </c>
       <c r="I7" s="1">
-        <v>4162.5408</v>
+        <v>3974.2152</v>
       </c>
       <c r="J7" s="1">
-        <v>54712.4194</v>
+        <v>54524.1888</v>
       </c>
       <c r="K7" s="1">
-        <v>46360.023</v>
+        <v>46549.3949</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1778</v>
+        <v>10.1989</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10205.1402</v>
+        <v>-10245.956</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0009</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>10.8505</v>
       </c>
       <c r="C8" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D8" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E8" s="1">
-        <v>5474.6088</v>
+        <v>5485.5824</v>
       </c>
       <c r="F8" s="1">
-        <v>1074.287</v>
+        <v>1076.4369</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59402.2429</v>
+        <v>59402.2742</v>
       </c>
       <c r="I8" s="1">
-        <v>3957.4006</v>
+        <v>3728.2591</v>
       </c>
       <c r="J8" s="1">
-        <v>63359.6436</v>
+        <v>63130.5333</v>
       </c>
       <c r="K8" s="1">
-        <v>56565.1632</v>
+        <v>56795.3509</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3323</v>
+        <v>10.3536</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2049.7626</v>
+        <v>2053.8751</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9606.7883</v>
+        <v>-9649.4696</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0209</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.8576</v>
       </c>
       <c r="C9" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D9" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E9" s="1">
-        <v>6548.8958</v>
+        <v>6562.0192</v>
       </c>
       <c r="F9" s="1">
-        <v>317.0879</v>
+        <v>317.7151</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>77654.1868</v>
+        <v>77654.2794</v>
       </c>
       <c r="I9" s="1">
-        <v>4350.6123</v>
+        <v>4078.7895</v>
       </c>
       <c r="J9" s="1">
-        <v>82004.7991</v>
+        <v>81733.0689</v>
       </c>
       <c r="K9" s="1">
-        <v>68221.7142</v>
+        <v>68498.6957</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4173</v>
+        <v>10.4387</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-3759.901</v>
+        <v>-3774.8999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1178</v>
+        <v>0.1176</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.5699</v>
       </c>
       <c r="C10" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D10" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E10" s="1">
-        <v>6865.9837</v>
+        <v>6879.7343</v>
       </c>
       <c r="F10" s="1">
-        <v>438.8603</v>
+        <v>439.7254</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>86304.728</v>
+        <v>86304.891</v>
       </c>
       <c r="I10" s="1">
-        <v>10590.7113</v>
+        <v>10303.8896</v>
       </c>
       <c r="J10" s="1">
-        <v>96895.4393</v>
+        <v>96608.7806</v>
       </c>
       <c r="K10" s="1">
-        <v>71981.6152</v>
+        <v>72273.5956</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4838</v>
+        <v>10.5053</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5516.4303</v>
+        <v>-5538.3855</v>
       </c>
       <c r="Q10" s="3">
         <v>0.0532</v>
@@ -2695,49 +2695,49 @@
         <v>13.5994</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E11" s="1">
-        <v>7304.844</v>
+        <v>7319.4597</v>
       </c>
       <c r="F11" s="1">
-        <v>216.0955</v>
+        <v>216.5524</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99341.4952</v>
+        <v>99341.1712</v>
       </c>
       <c r="I11" s="1">
-        <v>15074.281</v>
+        <v>14765.5041</v>
       </c>
       <c r="J11" s="1">
-        <v>114415.7761</v>
+        <v>114106.6753</v>
       </c>
       <c r="K11" s="1">
-        <v>77498.0454</v>
+        <v>77811.9811</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6091</v>
+        <v>10.6308</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3089.6926</v>
+        <v>3095.8804</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>150.9237</v>
+        <v>145.0071</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0704</v>
+        <v>0.0703</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>14.6663</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E12" s="1">
-        <v>7520.9395</v>
+        <v>7536.0121</v>
       </c>
       <c r="F12" s="1">
-        <v>169.5936</v>
+        <v>169.9157</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>110304.3544</v>
+        <v>110304.6098</v>
       </c>
       <c r="I12" s="1">
-        <v>25225.2047</v>
+        <v>24910.5112</v>
       </c>
       <c r="J12" s="1">
-        <v>135529.5591</v>
+        <v>135215.121</v>
       </c>
       <c r="K12" s="1">
-        <v>80436.8144</v>
+        <v>80762.8544</v>
       </c>
       <c r="L12" s="1">
-        <v>10.695</v>
+        <v>10.7169</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-2487.311</v>
+        <v>-2497.0296</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0893</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>14.701</v>
       </c>
       <c r="C13" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D13" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E13" s="1">
-        <v>7690.5331</v>
+        <v>7705.9278</v>
       </c>
       <c r="F13" s="1">
-        <v>700.4351</v>
+        <v>701.8548</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113058.5269</v>
+        <v>113058.2905</v>
       </c>
       <c r="I13" s="1">
-        <v>32737.8937</v>
+        <v>32413.4816</v>
       </c>
       <c r="J13" s="1">
-        <v>145796.4206</v>
+        <v>145471.7721</v>
       </c>
       <c r="K13" s="1">
-        <v>82924.1254</v>
+        <v>83259.88400000001</v>
       </c>
       <c r="L13" s="1">
-        <v>10.7826</v>
+        <v>10.8047</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10297.0968</v>
+        <v>-10338.6725</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0018</v>
@@ -2854,49 +2854,49 @@
         <v>13.8109</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E14" s="1">
-        <v>8390.968199999999</v>
+        <v>8407.7826</v>
       </c>
       <c r="F14" s="1">
-        <v>-8390.968199999999</v>
+        <v>-8407.7826</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>115886.8229</v>
+        <v>115886.9904</v>
       </c>
       <c r="I14" s="1">
-        <v>32440.7969</v>
+        <v>32074.8091</v>
       </c>
       <c r="J14" s="1">
-        <v>148327.6198</v>
+        <v>147961.7995</v>
       </c>
       <c r="K14" s="1">
-        <v>93221.2222</v>
+        <v>93598.55650000001</v>
       </c>
       <c r="L14" s="1">
-        <v>11.1097</v>
+        <v>11.1324</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>6921.4798</v>
+        <v>6935.335</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122808.3027</v>
+        <v>122822.3254</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0479</v>
+        <v>-0.0483</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D2" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.3595</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E3" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="F3" s="1">
-        <v>899.0153</v>
+        <v>904.9882</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10786.6514</v>
+        <v>10743.5079</v>
       </c>
       <c r="I3" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10786.6514</v>
+        <v>10743.5079</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9313.348599999999</v>
+        <v>-9394.0491</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.07439999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.0875</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E4" s="1">
-        <v>1940.2481</v>
+        <v>1944.1328</v>
       </c>
       <c r="F4" s="1">
-        <v>1059.3954</v>
+        <v>1049.2942</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19572.2525</v>
+        <v>19572.1679</v>
       </c>
       <c r="I4" s="1">
-        <v>686.6514</v>
+        <v>605.9509</v>
       </c>
       <c r="J4" s="1">
-        <v>20258.9039</v>
+        <v>20178.1189</v>
       </c>
       <c r="K4" s="1">
-        <v>19313.3486</v>
+        <v>19394.0491</v>
       </c>
       <c r="L4" s="1">
-        <v>9.9541</v>
+        <v>9.9757</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10686.6514</v>
+        <v>-10605.9509</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0254</v>
+        <v>-0.0273</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>10.1692</v>
       </c>
       <c r="C5" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D5" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E5" s="1">
-        <v>2999.6435</v>
+        <v>2993.427</v>
       </c>
       <c r="F5" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>30503.9748</v>
+        <v>30379.991</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30503.9748</v>
+        <v>30379.991</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0012</v>
+        <v>10.022</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>523.867</v>
+        <v>524.9159</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9476.133</v>
+        <v>-9475.0841</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0081</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>11.0872</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E6" s="1">
-        <v>3983.005</v>
+        <v>3974.8198</v>
       </c>
       <c r="F6" s="1">
-        <v>617.8004</v>
+        <v>635.2164</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>44160.3734</v>
+        <v>43981.3807</v>
       </c>
       <c r="I6" s="1">
-        <v>523.867</v>
+        <v>524.9159</v>
       </c>
       <c r="J6" s="1">
-        <v>44684.2404</v>
+        <v>44506.2966</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.0427</v>
+        <v>10.0633</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6849.6767</v>
+        <v>-7056.873</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1032</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.0976</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E7" s="1">
-        <v>4600.8054</v>
+        <v>4610.0362</v>
       </c>
       <c r="F7" s="1">
-        <v>942.7491</v>
+        <v>944.6301</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51057.8985</v>
+        <v>51057.9945</v>
       </c>
       <c r="I7" s="1">
-        <v>3674.1903</v>
+        <v>3468.0429</v>
       </c>
       <c r="J7" s="1">
-        <v>54732.0888</v>
+        <v>54526.0374</v>
       </c>
       <c r="K7" s="1">
-        <v>46849.6767</v>
+        <v>47056.873</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1829</v>
+        <v>10.2075</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10462.2521</v>
+        <v>-10504.0977</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0009</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>10.8505</v>
       </c>
       <c r="C8" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D8" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E8" s="1">
-        <v>5543.5545</v>
+        <v>5554.6663</v>
       </c>
       <c r="F8" s="1">
-        <v>1104.5587</v>
+        <v>1106.7692</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60150.3383</v>
+        <v>60150.3699</v>
       </c>
       <c r="I8" s="1">
-        <v>3211.9382</v>
+        <v>2963.9452</v>
       </c>
       <c r="J8" s="1">
-        <v>63362.2765</v>
+        <v>63114.3151</v>
       </c>
       <c r="K8" s="1">
-        <v>57311.9288</v>
+        <v>57560.9707</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3385</v>
+        <v>10.3626</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2070.3624</v>
+        <v>2074.5163</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9914.651400000001</v>
+        <v>-9958.6104</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0212</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>11.8576</v>
       </c>
       <c r="C9" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D9" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E9" s="1">
-        <v>6648.1132</v>
+        <v>6661.4354</v>
       </c>
       <c r="F9" s="1">
-        <v>339.5323</v>
+        <v>340.2044</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>78830.6669</v>
+        <v>78830.76089999999</v>
       </c>
       <c r="I9" s="1">
-        <v>3297.2868</v>
+        <v>3005.3348</v>
       </c>
       <c r="J9" s="1">
-        <v>82127.9537</v>
+        <v>81836.09570000001</v>
       </c>
       <c r="K9" s="1">
-        <v>69296.94259999999</v>
+        <v>69594.09729999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4236</v>
+        <v>10.4473</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-4026.0387</v>
+        <v>-4042.1045</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1195</v>
+        <v>0.1193</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.5699</v>
       </c>
       <c r="C10" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D10" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E10" s="1">
-        <v>6987.6455</v>
+        <v>7001.6398</v>
       </c>
       <c r="F10" s="1">
-        <v>465.4983</v>
+        <v>466.4165</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>87834.0055</v>
+        <v>87834.17140000001</v>
       </c>
       <c r="I10" s="1">
-        <v>9271.248100000001</v>
+        <v>8963.230299999999</v>
       </c>
       <c r="J10" s="1">
-        <v>97105.2536</v>
+        <v>96797.4017</v>
       </c>
       <c r="K10" s="1">
-        <v>73322.9814</v>
+        <v>73636.2018</v>
       </c>
       <c r="L10" s="1">
-        <v>10.4932</v>
+        <v>10.517</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5851.2671</v>
+        <v>-5874.562</v>
       </c>
       <c r="Q10" s="3">
         <v>0.054</v>
@@ -3463,46 +3463,46 @@
         <v>13.5994</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E11" s="1">
-        <v>7453.1438</v>
+        <v>7468.0563</v>
       </c>
       <c r="F11" s="1">
-        <v>239.9989</v>
+        <v>240.5042</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>101358.2843</v>
+        <v>101357.9537</v>
       </c>
       <c r="I11" s="1">
-        <v>13419.9809</v>
+        <v>13088.6683</v>
       </c>
       <c r="J11" s="1">
-        <v>114778.2652</v>
+        <v>114446.622</v>
       </c>
       <c r="K11" s="1">
-        <v>79174.2485</v>
+        <v>79510.7638</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6229</v>
+        <v>10.6468</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3144.4405</v>
+        <v>3150.7379</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-119.4007</v>
+        <v>-126.5172</v>
       </c>
       <c r="Q11" s="3">
         <v>0.0716</v>
@@ -3516,34 +3516,34 @@
         <v>14.6663</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E12" s="1">
-        <v>7693.1427</v>
+        <v>7708.5605</v>
       </c>
       <c r="F12" s="1">
-        <v>193.5326</v>
+        <v>193.9022</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>112829.9394</v>
+        <v>112830.2007</v>
       </c>
       <c r="I12" s="1">
-        <v>23300.5803</v>
+        <v>22962.1511</v>
       </c>
       <c r="J12" s="1">
-        <v>136130.5197</v>
+        <v>135792.3518</v>
       </c>
       <c r="K12" s="1">
-        <v>82438.0897</v>
+        <v>82788.019</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7158</v>
+        <v>10.7398</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-2838.4073</v>
+        <v>-2849.528</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.091</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>14.701</v>
       </c>
       <c r="C13" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D13" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E13" s="1">
-        <v>7886.6753</v>
+        <v>7902.4627</v>
       </c>
       <c r="F13" s="1">
-        <v>740.2909</v>
+        <v>741.7908</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>115942.0143</v>
+        <v>115941.7719</v>
       </c>
       <c r="I13" s="1">
-        <v>30462.173</v>
+        <v>30112.623</v>
       </c>
       <c r="J13" s="1">
-        <v>146404.1873</v>
+        <v>146054.3949</v>
       </c>
       <c r="K13" s="1">
-        <v>85276.4969</v>
+        <v>85637.54700000001</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8127</v>
+        <v>10.8368</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10883.0158</v>
+        <v>-10926.9497</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>13.8109</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E14" s="1">
-        <v>8626.966200000001</v>
+        <v>8644.253500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8626.966200000001</v>
+        <v>-8644.253500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119146.1675</v>
+        <v>119146.3397</v>
       </c>
       <c r="I14" s="1">
-        <v>29579.1572</v>
+        <v>29185.6733</v>
       </c>
       <c r="J14" s="1">
-        <v>148725.3247</v>
+        <v>148332.013</v>
       </c>
       <c r="K14" s="1">
-        <v>96159.5128</v>
+        <v>96564.4967</v>
       </c>
       <c r="L14" s="1">
-        <v>11.1464</v>
+        <v>11.1709</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>7098.0078</v>
+        <v>7112.2164</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126244.1753</v>
+        <v>126258.5562</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0491</v>
+        <v>-0.0495</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D2" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.3595</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E3" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="F3" s="1">
-        <v>903.8416999999999</v>
+        <v>909.8244</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10786.6514</v>
+        <v>10743.5079</v>
       </c>
       <c r="I3" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10786.6514</v>
+        <v>10743.5079</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9363.348599999999</v>
+        <v>-9444.2498</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.07439999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.0875</v>
       </c>
       <c r="C4" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D4" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E4" s="1">
-        <v>1945.0746</v>
+        <v>1948.9689</v>
       </c>
       <c r="F4" s="1">
-        <v>1054.4388</v>
+        <v>1044.3276</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19620.9397</v>
+        <v>19620.8549</v>
       </c>
       <c r="I4" s="1">
-        <v>636.6514</v>
+        <v>555.7501999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>20257.5911</v>
+        <v>20176.6052</v>
       </c>
       <c r="K4" s="1">
-        <v>19363.3486</v>
+        <v>19444.2498</v>
       </c>
       <c r="L4" s="1">
-        <v>9.9551</v>
+        <v>9.976699999999999</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10636.6514</v>
+        <v>-10555.7502</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0255</v>
+        <v>-0.0273</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>10.1692</v>
       </c>
       <c r="C5" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D5" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E5" s="1">
-        <v>2999.5134</v>
+        <v>2993.2965</v>
       </c>
       <c r="F5" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30502.6514</v>
+        <v>30378.6673</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30502.6514</v>
+        <v>30378.6673</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0016</v>
+        <v>10.0224</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>525.1701</v>
+        <v>526.2216</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9474.829900000001</v>
+        <v>-9473.778399999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0081</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.0872</v>
       </c>
       <c r="C6" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D6" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E6" s="1">
-        <v>3982.8749</v>
+        <v>3974.6893</v>
       </c>
       <c r="F6" s="1">
-        <v>664.1658</v>
+        <v>681.6748</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>44158.9305</v>
+        <v>43979.9375</v>
       </c>
       <c r="I6" s="1">
-        <v>525.1701</v>
+        <v>526.2216</v>
       </c>
       <c r="J6" s="1">
-        <v>44684.1006</v>
+        <v>44506.1592</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.043</v>
+        <v>10.0637</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7363.7388</v>
+        <v>-7572.9981</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.1032</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.0976</v>
       </c>
       <c r="C7" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D7" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E7" s="1">
-        <v>4647.0407</v>
+        <v>4656.3641</v>
       </c>
       <c r="F7" s="1">
-        <v>966.3810999999999</v>
+        <v>968.3094</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51570.9985</v>
+        <v>51571.0954</v>
       </c>
       <c r="I7" s="1">
-        <v>3161.4314</v>
+        <v>2953.2235</v>
       </c>
       <c r="J7" s="1">
-        <v>54732.4299</v>
+        <v>54524.319</v>
       </c>
       <c r="K7" s="1">
-        <v>47363.7388</v>
+        <v>47572.9981</v>
       </c>
       <c r="L7" s="1">
-        <v>10.1922</v>
+        <v>10.2168</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10724.5108</v>
+        <v>-10767.4068</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0009</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>10.8505</v>
       </c>
       <c r="C8" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D8" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E8" s="1">
-        <v>5613.4218</v>
+        <v>5624.6735</v>
       </c>
       <c r="F8" s="1">
-        <v>1135.5706</v>
+        <v>1120.8131</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60908.4328</v>
+        <v>60908.4648</v>
       </c>
       <c r="I8" s="1">
-        <v>2436.9206</v>
+        <v>2185.8168</v>
       </c>
       <c r="J8" s="1">
-        <v>63345.3533</v>
+        <v>63094.2816</v>
       </c>
       <c r="K8" s="1">
-        <v>58088.2496</v>
+        <v>58340.4049</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3481</v>
+        <v>10.3722</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>2091.1683</v>
+        <v>2095.3639</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10230.3409</v>
+        <v>-10090.4529</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0214</v>
+        <v>-0.0222</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.8576</v>
       </c>
       <c r="C9" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D9" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E9" s="1">
-        <v>6748.9924</v>
+        <v>6745.4867</v>
       </c>
       <c r="F9" s="1">
-        <v>362.7664</v>
+        <v>380.515</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>80026.85219999999</v>
+        <v>79825.4148</v>
       </c>
       <c r="I9" s="1">
-        <v>2206.5797</v>
+        <v>2095.3639</v>
       </c>
       <c r="J9" s="1">
-        <v>82233.4319</v>
+        <v>81920.7787</v>
       </c>
       <c r="K9" s="1">
-        <v>70409.75870000001</v>
+        <v>70526.2216</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4326</v>
+        <v>10.4553</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-4301.5389</v>
+        <v>-4521.0507</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1212</v>
+        <v>0.1208</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.5699</v>
       </c>
       <c r="C10" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D10" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E10" s="1">
-        <v>7111.7588</v>
+        <v>7126.0017</v>
       </c>
       <c r="F10" s="1">
-        <v>493.1797</v>
+        <v>494.1531</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>89394.0969</v>
+        <v>89394.2656</v>
       </c>
       <c r="I10" s="1">
-        <v>7905.0408</v>
+        <v>7574.3132</v>
       </c>
       <c r="J10" s="1">
-        <v>97299.13770000001</v>
+        <v>96968.5788</v>
       </c>
       <c r="K10" s="1">
-        <v>74711.29760000001</v>
+        <v>75047.2723</v>
       </c>
       <c r="L10" s="1">
-        <v>10.5053</v>
+        <v>10.5315</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,7 +4217,7 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6199.2201</v>
+        <v>-6223.9072</v>
       </c>
       <c r="Q10" s="3">
         <v>0.0549</v>
@@ -4231,46 +4231,46 @@
         <v>13.5994</v>
       </c>
       <c r="C11" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D11" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E11" s="1">
-        <v>7604.9385</v>
+        <v>7620.1547</v>
       </c>
       <c r="F11" s="1">
-        <v>265.057</v>
+        <v>265.613</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>103422.6012</v>
+        <v>103422.2639</v>
       </c>
       <c r="I11" s="1">
-        <v>11705.8207</v>
+        <v>11350.406</v>
       </c>
       <c r="J11" s="1">
-        <v>115128.4219</v>
+        <v>114772.6699</v>
       </c>
       <c r="K11" s="1">
-        <v>80910.5177</v>
+        <v>81271.1795</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6392</v>
+        <v>10.6653</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3200.2915</v>
+        <v>3206.7007</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-404.3241</v>
+        <v>-412.7014</v>
       </c>
       <c r="Q11" s="3">
         <v>0.073</v>
@@ -4284,34 +4284,34 @@
         <v>14.6663</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E12" s="1">
-        <v>7869.9955</v>
+        <v>7885.7677</v>
       </c>
       <c r="F12" s="1">
-        <v>218.7948</v>
+        <v>219.2145</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>115423.7149</v>
+        <v>115423.9822</v>
       </c>
       <c r="I12" s="1">
-        <v>21301.4967</v>
+        <v>20937.7046</v>
       </c>
       <c r="J12" s="1">
-        <v>136725.2115</v>
+        <v>136361.6868</v>
       </c>
       <c r="K12" s="1">
-        <v>84515.1332</v>
+        <v>84890.5816</v>
       </c>
       <c r="L12" s="1">
-        <v>10.7389</v>
+        <v>10.765</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-3208.9101</v>
+        <v>-3221.5107</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0927</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>14.701</v>
       </c>
       <c r="C13" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D13" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E13" s="1">
-        <v>8088.7903</v>
+        <v>8104.9822</v>
       </c>
       <c r="F13" s="1">
-        <v>782.1787</v>
+        <v>783.763</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>118913.306</v>
+        <v>118913.0573</v>
       </c>
       <c r="I13" s="1">
-        <v>28092.5866</v>
+        <v>27716.1939</v>
       </c>
       <c r="J13" s="1">
-        <v>147005.8926</v>
+        <v>146629.2513</v>
       </c>
       <c r="K13" s="1">
-        <v>87724.0433</v>
+        <v>88112.0923</v>
       </c>
       <c r="L13" s="1">
-        <v>10.8451</v>
+        <v>10.8713</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11498.8084</v>
+        <v>-11545.2206</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>13.8109</v>
       </c>
       <c r="C14" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D14" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E14" s="1">
-        <v>8870.9689</v>
+        <v>8888.745199999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8870.9689</v>
+        <v>-8888.745199999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122516.0649</v>
+        <v>122516.2419</v>
       </c>
       <c r="I14" s="1">
-        <v>26593.7783</v>
+        <v>26170.9733</v>
       </c>
       <c r="J14" s="1">
-        <v>149109.8431</v>
+        <v>148687.2152</v>
       </c>
       <c r="K14" s="1">
-        <v>99222.85159999999</v>
+        <v>99657.3129</v>
       </c>
       <c r="L14" s="1">
-        <v>11.1851</v>
+        <v>11.2116</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>7279.9113</v>
+        <v>7294.484</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129795.9761</v>
+        <v>129810.7259</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0503</v>
+        <v>-0.0507</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4451,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.5924</v>
+        <v>11.6155</v>
       </c>
       <c r="D3" s="1">
-        <v>11.074</v>
+        <v>11.0966</v>
       </c>
       <c r="E3" s="1">
-        <v>11.1097</v>
+        <v>11.1324</v>
       </c>
       <c r="F3" s="1">
-        <v>11.1464</v>
+        <v>11.1709</v>
       </c>
       <c r="G3" s="1">
-        <v>11.1851</v>
+        <v>11.2116</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.3845</v>
       </c>
       <c r="C4" s="3">
-        <v>0.4516</v>
+        <v>0.4392</v>
       </c>
       <c r="D4" s="3">
-        <v>0.424</v>
+        <v>0.4142</v>
       </c>
       <c r="E4" s="3">
-        <v>0.4287</v>
+        <v>0.4188</v>
       </c>
       <c r="F4" s="3">
-        <v>0.4332</v>
+        <v>0.4229</v>
       </c>
       <c r="G4" s="3">
-        <v>0.4374</v>
+        <v>0.4267</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,7 +4536,7 @@
         <v>0.179</v>
       </c>
       <c r="C5" s="3">
-        <v>0.202</v>
+        <v>0.2017</v>
       </c>
       <c r="D5" s="3">
         <v>0.1835</v>
@@ -4559,19 +4559,19 @@
         <v>2.0351</v>
       </c>
       <c r="C6" s="4">
-        <v>2.1345</v>
+        <v>2.0772</v>
       </c>
       <c r="D6" s="4">
-        <v>2.2004</v>
+        <v>2.1468</v>
       </c>
       <c r="E6" s="4">
-        <v>2.198</v>
+        <v>2.1441</v>
       </c>
       <c r="F6" s="4">
-        <v>2.1951</v>
+        <v>2.1402</v>
       </c>
       <c r="G6" s="4">
-        <v>2.1912</v>
+        <v>2.1359</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.6686</v>
+        <v>0.6571</v>
       </c>
       <c r="D7" s="3">
-        <v>0.6986</v>
+        <v>0.6884</v>
       </c>
       <c r="E7" s="3">
-        <v>0.6973</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>0.6959</v>
+        <v>0.6854</v>
       </c>
       <c r="G7" s="3">
-        <v>0.6942</v>
+        <v>0.6834</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>15213.7246</v>
+        <v>15182.6905</v>
       </c>
       <c r="D8" s="1">
-        <v>12336.8242</v>
+        <v>12361.532</v>
       </c>
       <c r="E8" s="1">
-        <v>12583.4988</v>
+        <v>12608.7006</v>
       </c>
       <c r="F8" s="1">
-        <v>12836.6777</v>
+        <v>12862.3865</v>
       </c>
       <c r="G8" s="1">
-        <v>13096.5411</v>
+        <v>13122.7702</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P9_KFSDIV.xlsx
+++ b/output/1Y_P9_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>14768.2335</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1852</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.6356</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5904</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5456</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.5018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
